--- a/database/industries/zeraat/simorgh/official/yearly.xlsx
+++ b/database/industries/zeraat/simorgh/official/yearly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\zeraat\simorgh\official\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\zeraat\simorgh\official\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7453B729-F832-47F3-90CB-4DB5687E79A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>سیمرغ-سیمرغ</t>
@@ -33,9 +34,6 @@
     <t>هزینه های عمومی و اداری</t>
   </si>
   <si>
-    <t>دوازده ماهه منتهی به 1396/12</t>
-  </si>
-  <si>
     <t>دوازده ماهه منتهی به 1397/09</t>
   </si>
   <si>
@@ -46,6 +44,9 @@
   </si>
   <si>
     <t>دوازده ماهه منتهی به 1400/09</t>
+  </si>
+  <si>
+    <t>دوازده ماهه منتهی به 1401/09</t>
   </si>
   <si>
     <t>هزینه حمل و نقل و انتقال</t>
@@ -102,7 +103,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -266,7 +267,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -278,7 +279,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -325,6 +326,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -360,6 +378,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -511,7 +546,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -639,19 +674,19 @@
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>22463</v>
+        <v>20782</v>
       </c>
       <c r="F10" s="9">
-        <v>20782</v>
+        <v>32461</v>
       </c>
       <c r="G10" s="9">
-        <v>32461</v>
+        <v>27930</v>
       </c>
       <c r="H10" s="9">
-        <v>27930</v>
+        <v>47996</v>
       </c>
       <c r="I10" s="9">
-        <v>0</v>
+        <v>58084</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
@@ -683,13 +718,13 @@
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>19097</v>
+        <v>23262</v>
       </c>
       <c r="F12" s="9">
-        <v>23262</v>
+        <v>40437</v>
       </c>
       <c r="G12" s="9">
-        <v>40437</v>
+        <v>0</v>
       </c>
       <c r="H12" s="9">
         <v>0</v>
@@ -708,16 +743,16 @@
         <v>0</v>
       </c>
       <c r="F13" s="11">
-        <v>0</v>
+        <v>7788</v>
       </c>
       <c r="G13" s="11">
-        <v>7788</v>
+        <v>7301</v>
       </c>
       <c r="H13" s="11">
-        <v>7301</v>
+        <v>12277</v>
       </c>
       <c r="I13" s="11">
-        <v>0</v>
+        <v>10630</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
@@ -727,19 +762,19 @@
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9">
-        <v>1482</v>
+        <v>2309</v>
       </c>
       <c r="F14" s="9">
-        <v>2309</v>
+        <v>3622</v>
       </c>
       <c r="G14" s="9">
-        <v>3622</v>
+        <v>4355</v>
       </c>
       <c r="H14" s="9">
-        <v>4355</v>
+        <v>6627</v>
       </c>
       <c r="I14" s="9">
-        <v>0</v>
+        <v>7923</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
@@ -749,19 +784,19 @@
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
-        <v>3721</v>
+        <v>3060</v>
       </c>
       <c r="F15" s="11">
-        <v>3060</v>
+        <v>4775</v>
       </c>
       <c r="G15" s="11">
-        <v>4775</v>
+        <v>5284</v>
       </c>
       <c r="H15" s="11">
-        <v>5284</v>
+        <v>6366</v>
       </c>
       <c r="I15" s="11">
-        <v>0</v>
+        <v>7877</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
@@ -771,19 +806,19 @@
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
-        <v>9237</v>
+        <v>6723</v>
       </c>
       <c r="F16" s="9">
-        <v>6723</v>
+        <v>12454</v>
       </c>
       <c r="G16" s="9">
-        <v>12454</v>
+        <v>11498</v>
       </c>
       <c r="H16" s="9">
-        <v>11498</v>
+        <v>14180</v>
       </c>
       <c r="I16" s="9">
-        <v>0</v>
+        <v>18690</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
@@ -793,19 +828,19 @@
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11">
-        <v>177159</v>
+        <v>166547</v>
       </c>
       <c r="F17" s="11">
-        <v>166547</v>
+        <v>176328</v>
       </c>
       <c r="G17" s="11">
-        <v>176328</v>
+        <v>260629</v>
       </c>
       <c r="H17" s="11">
-        <v>260629</v>
+        <v>496932</v>
       </c>
       <c r="I17" s="11">
-        <v>0</v>
+        <v>761165</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
@@ -837,19 +872,19 @@
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>46756</v>
+        <v>48481</v>
       </c>
       <c r="F19" s="11">
-        <v>48481</v>
+        <v>118364</v>
       </c>
       <c r="G19" s="11">
-        <v>118364</v>
+        <v>253986</v>
       </c>
       <c r="H19" s="11">
-        <v>253986</v>
+        <v>192619</v>
       </c>
       <c r="I19" s="11">
-        <v>0</v>
+        <v>273650</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -859,19 +894,19 @@
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
       <c r="E20" s="13">
-        <v>279915</v>
+        <v>271164</v>
       </c>
       <c r="F20" s="13">
-        <v>271164</v>
+        <v>396229</v>
       </c>
       <c r="G20" s="13">
-        <v>396229</v>
+        <v>570983</v>
       </c>
       <c r="H20" s="13">
-        <v>570983</v>
+        <v>776997</v>
       </c>
       <c r="I20" s="13">
-        <v>0</v>
+        <v>1138019</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
@@ -951,11 +986,11 @@
       <c r="G26" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H26" s="9" t="s">
-        <v>22</v>
+      <c r="H26" s="9">
+        <v>128</v>
       </c>
       <c r="I26" s="9">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
@@ -973,11 +1008,11 @@
       <c r="G27" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H27" s="11" t="s">
-        <v>22</v>
+      <c r="H27" s="11">
+        <v>1571</v>
       </c>
       <c r="I27" s="11">
-        <v>1571</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
@@ -990,13 +1025,13 @@
         <v>193</v>
       </c>
       <c r="F28" s="9">
-        <v>193</v>
+        <v>56</v>
       </c>
       <c r="G28" s="9">
-        <v>56</v>
-      </c>
-      <c r="H28" s="9">
         <v>47</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="I28" s="9" t="s">
         <v>22</v>
@@ -1009,16 +1044,16 @@
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
       <c r="E29" s="11">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="F29" s="11">
-        <v>1424</v>
+        <v>1676</v>
       </c>
       <c r="G29" s="11">
-        <v>1676</v>
-      </c>
-      <c r="H29" s="11">
         <v>1607</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="I29" s="11" t="s">
         <v>22</v>
